--- a/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 7,71</t>
+          <t>-3,39; 9,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,61</t>
+          <t>0,0; 11,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,48</t>
+          <t>-2,03; 4,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,05</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,42</t>
+          <t>-3,39; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,63</t>
+          <t>0,0; 12,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,79</t>
+          <t>-2,03; 4,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 7,36</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,75; -0,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,17</t>
+          <t>-5,34; -0,17</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,75; -0,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,17</t>
+          <t>-5,34; -0,17</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,0</t>
+          <t>-10,88; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,0</t>
+          <t>-10,88; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-22,91; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 0,0</t>
+          <t>-19,95; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-13,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-22,91; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 0,0</t>
+          <t>-19,95; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-13,47; 0,0</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 0,0</t>
+          <t>-21,69; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,65; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-17,39; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,0</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 0,0</t>
+          <t>-21,69; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,65; 0,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-17,39; 0,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,0</t>
+          <t>-7,54; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,17</t>
+          <t>-3,74; 4,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,11</t>
+          <t>0,0; 7,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-11,97; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,17 +2011,17 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>-2,05; 2,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,0</t>
+          <t>-1,85; 2,88</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,36</t>
+          <t>-3,81; 4,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,77</t>
+          <t>0,0; 7,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-11,97; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,06</t>
+          <t>-2,06; 2,99</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,09</t>
+          <t>-1,87; 2,97</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,41</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,68</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 0,57</t>
+          <t>-14,46; 0,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,87</t>
+          <t>-7,14; 1,89</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,22 +2222,22 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-7,03; 0,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 0,65</t>
+          <t>-8,25; 0,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,03</t>
+          <t>-4,14; 1,04</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 4,91</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 0,57</t>
+          <t>-14,46; 0,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,91</t>
+          <t>-7,17; 1,92</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,22 +2328,22 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-7,03; 0,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 0,65</t>
+          <t>-8,33; 0,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,06</t>
+          <t>-4,19; 1,01</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,3; 1,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,8; 0,89</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,09</t>
+          <t>-1,24; 1,14</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,27 +2433,27 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,17; 1,08</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,26; 0,58</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,43</t>
+          <t>-1,32; 0,39</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,29; 1,65</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,81; 0,9</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,11</t>
+          <t>-1,24; 1,15</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2539,27 +2539,27 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,32; -0,44</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,17; 1,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,27; 0,58</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,32; 0,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 9,23</t>
+          <t>-3,37; 9,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,46</t>
+          <t>0,0; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,27</t>
+          <t>-2,01; 4,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,86</t>
+          <t>0,0; 8,42</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 10,11</t>
+          <t>-3,38; 10,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,94</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 4,47</t>
+          <t>-2,02; 4,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,36</t>
+          <t>0,0; 9,23</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 0,0</t>
+          <t>-19,04; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 0,0</t>
+          <t>-15,59; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 0,0</t>
+          <t>-19,04; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 0,0</t>
+          <t>-15,59; 0,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 4,17</t>
+          <t>-3,88; 4,96</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,35</t>
+          <t>0,0; 6,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,18</t>
+          <t>0,0; 7,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,0</t>
+          <t>-10,25; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,17 +2011,17 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,89</t>
+          <t>-1,79; 3,1</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,88</t>
+          <t>-1,82; 3,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 4,38</t>
+          <t>-3,95; 5,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,94</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 7,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,0</t>
+          <t>-10,25; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,99</t>
+          <t>-1,8; 3,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 2,97</t>
+          <t>-1,85; 3,23</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,68</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 0,94</t>
+          <t>-13,49; 0,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,89</t>
+          <t>-7,17; 1,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>0,0; 3,26</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 0,65</t>
+          <t>-9,35; 0,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,04</t>
+          <t>-4,11; 1,27</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 0,95</t>
+          <t>-13,65; 0,94</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 1,92</t>
+          <t>-7,2; 1,87</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2333,17 +2333,17 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 0,65</t>
+          <t>-9,36; 0,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 1,01</t>
+          <t>-4,2; 1,28</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,62</t>
+          <t>-0,28; 1,68</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,89</t>
+          <t>-1,87; 0,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,14</t>
+          <t>-1,4; 1,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -2443,17 +2443,17 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,08</t>
+          <t>-0,17; 1,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,39</t>
+          <t>-1,39; 0,42</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,65</t>
+          <t>-0,28; 1,7</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 0,9</t>
+          <t>-1,89; 0,8</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,15</t>
+          <t>-1,41; 1,17</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 0,0</t>
+          <t>-2,98; 0,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,1</t>
+          <t>-0,16; 1,07</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,58</t>
+          <t>-1,42; 0,52</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,4</t>
+          <t>-1,39; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 9,15</t>
+          <t>-3,46; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,3</t>
+          <t>0,0; 9,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 4,36</t>
+          <t>-1,99; 5,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,42</t>
+          <t>0,0; 8,05</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 10,01</t>
+          <t>-3,46; 8,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,75</t>
+          <t>0,0; 10,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 4,6</t>
+          <t>-1,99; 5,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,23</t>
+          <t>0,0; 8,77</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,61</t>
+          <t>-10,61; -0,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,17</t>
+          <t>-6,52; -0,17</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -0,61</t>
+          <t>-10,61; -0,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-5,34; -0,17</t>
+          <t>-6,52; -0,17</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 0,0</t>
+          <t>-11,0; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 0,0</t>
+          <t>-11,0; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 0,0</t>
+          <t>-21,17; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 0,0</t>
+          <t>-21,75; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,0</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 0,0</t>
+          <t>-21,17; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 0,0</t>
+          <t>-21,75; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 0,0</t>
+          <t>-12,34; 0,0</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 0,0</t>
+          <t>-19,35; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 0,0</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,0</t>
+          <t>-7,15; 0,0</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 0,0</t>
+          <t>-19,35; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 0,0</t>
+          <t>-14,45; 0,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,12 +1906,12 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 0,0</t>
+          <t>-14,49; 0,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 0,0</t>
+          <t>-7,15; 0,0</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 4,96</t>
+          <t>-3,96; 4,17</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,82</t>
+          <t>0,0; 7,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,12</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 0,0</t>
+          <t>-8,26; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,17 +2011,17 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,1</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,14</t>
+          <t>-1,96; 3,0</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 5,13</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 5,24</t>
+          <t>-4,06; 4,36</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>0,0; 7,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 0,0</t>
+          <t>-8,26; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,2</t>
+          <t>-2,39; 3,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,23</t>
+          <t>-1,99; 3,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,04</t>
+          <t>0,0; 5,41</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,74</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,94</t>
+          <t>-14,94; 0,57</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 1,84</t>
+          <t>-7,07; 1,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,22 +2222,22 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,0</t>
+          <t>-5,7; 0,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,26</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 0,65</t>
+          <t>-10,36; 0,65</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,27</t>
+          <t>-4,02; 1,03</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,8</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 0,94</t>
+          <t>-14,98; 0,57</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 1,87</t>
+          <t>-7,07; 1,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,22 +2328,22 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 0,0</t>
+          <t>-5,7; 0,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,77</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 0,65</t>
+          <t>-10,43; 0,65</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,28</t>
+          <t>-4,11; 1,06</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,68</t>
+          <t>-0,28; 1,62</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,79</t>
+          <t>-2,02; 0,94</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,15</t>
+          <t>-1,5; 1,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,27 +2433,27 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,06</t>
+          <t>-0,15; 1,13</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,56</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,42</t>
+          <t>-1,32; 0,43</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,7</t>
+          <t>-0,28; 1,65</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,8</t>
+          <t>-2,04; 0,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 1,17</t>
+          <t>-1,51; 1,11</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2539,27 +2539,27 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,0</t>
+          <t>-2,7; 0,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,32; -0,44</t>
+          <t>-2,47; -0,42</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,07</t>
+          <t>-0,15; 1,15</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,52</t>
+          <t>-1,34; 0,57</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,43</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +753,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>-1,77</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,7; -0,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,17</t>
+          <t>-6,25; -0,18</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-1,77%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,61; -0,34</t>
+          <t>-10,7; -0,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,52; -0,17</t>
+          <t>-6,25; -0,18</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-1,05</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,0</t>
+          <t>-10,83; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-1,05%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,0; 0,0</t>
+          <t>-10,83; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-21,34; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 0,0</t>
+          <t>-21,69; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-12,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,96%</t>
+          <t>-4,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,89%</t>
+          <t>-3,93%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,0</t>
+          <t>-21,34; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 0,0</t>
+          <t>-21,69; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 0,0</t>
+          <t>-12,44; 0,0</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,43</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,0</t>
+          <t>-7,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-2,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-1,43%</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,0</t>
+          <t>-7,11; 0,0</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,87</t>
+          <t>-6,93; 1,87</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 1,03</t>
+          <t>-4,14; 1,02</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-0,8%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-0,87%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 1,91</t>
+          <t>-6,95; 1,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,0</t>
+          <t>-5,84; 0,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 1,06</t>
+          <t>-4,22; 1,05</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,09</t>
+          <t>-1,29; 1,15</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,42; -0,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,43</t>
+          <t>-1,19; 0,52</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-1,02%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>-0,41%</t>
+          <t>-0,35%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,11</t>
+          <t>-1,29; 1,17</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,42</t>
+          <t>-2,42; -0,4</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,2; 0,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P69_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,06</t>
+          <t>0,0; 10,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 7,71</t>
+          <t>-3,39; 7,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,61</t>
+          <t>0,0; 12,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,11</t>
+          <t>0,0; 6,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,48</t>
+          <t>-2,01; 4,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,05</t>
+          <t>0,0; 6,29</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,43</t>
+          <t>0,0; 11,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 8,42</t>
+          <t>-3,39; 8,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,63</t>
+          <t>0,0; 13,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,65</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,79</t>
+          <t>-2,01; 5,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,77</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -0,37</t>
+          <t>-11,1; -0,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -0,18</t>
+          <t>-6,01; -0,2</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,7; -0,37</t>
+          <t>-11,1; -0,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,25; -0,18</t>
+          <t>-6,01; -0,2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 0,0</t>
+          <t>-8,59; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-6,69; 0,0</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 0,0</t>
+          <t>-8,59; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-6,69; 0,0</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 0,0</t>
+          <t>-18,74; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 0,0</t>
+          <t>-15,17; 0,0</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 0,0</t>
+          <t>-19,49; 0,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 0,0</t>
+          <t>-18,74; 0,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 0,0</t>
+          <t>-15,17; 0,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 0,0</t>
+          <t>-23,17; 0,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-14,46; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-15,42; 0,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,0</t>
+          <t>-7,62; 0,0</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 0,0</t>
+          <t>-23,17; 0,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-14,46; 0,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 0,0</t>
+          <t>-15,42; 0,0</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 0,0</t>
+          <t>-7,62; 0,0</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,17</t>
+          <t>-4,18; 4,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,21</t>
+          <t>0,0; 6,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,11</t>
+          <t>0,0; 7,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,17 +2011,17 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>-1,74; 3,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 3,0</t>
+          <t>-1,87; 3,34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,13</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 4,36</t>
+          <t>-4,27; 4,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,77</t>
+          <t>0,0; 7,21</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 7,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>-9,47; 0,0</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,06</t>
+          <t>-1,75; 3,45</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,09</t>
+          <t>-1,88; 3,46</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,41</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
     </row>
@@ -2197,17 +2197,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,74</t>
+          <t>0,0; 4,69</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-14,94; 0,57</t>
+          <t>-14,19; 0,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 1,87</t>
+          <t>-6,69; 1,86</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,22 +2222,22 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,81; 0,0</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 0,65</t>
+          <t>-9,78; 0,64</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 1,02</t>
+          <t>-3,98; 1,25</t>
         </is>
       </c>
     </row>
@@ -2303,17 +2303,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 4,92</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-14,98; 0,57</t>
+          <t>-14,26; 0,96</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 1,91</t>
+          <t>-6,74; 1,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,22 +2328,22 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 0,0</t>
+          <t>-5,81; 0,0</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,77</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 0,65</t>
+          <t>-9,83; 0,64</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,05</t>
+          <t>-4,04; 1,26</t>
         </is>
       </c>
     </row>
@@ -2413,17 +2413,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,62</t>
+          <t>-0,35; 1,58</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,94</t>
+          <t>-1,79; 0,96</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,15</t>
+          <t>-1,43; 1,16</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2433,27 +2433,27 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,13</t>
+          <t>-0,05; 1,11</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,56</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,52</t>
+          <t>-1,19; 0,43</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2519,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,65</t>
+          <t>-0,35; 1,62</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,95</t>
+          <t>-1,79; 0,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,17</t>
+          <t>-1,44; 1,17</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2539,27 +2539,27 @@
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,0</t>
+          <t>-2,82; 0,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-2,42; -0,4</t>
+          <t>-2,36; -0,4</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 1,15</t>
+          <t>-0,05; 1,12</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 0,57</t>
+          <t>-1,39; 0,5</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,52</t>
+          <t>-1,2; 0,43</t>
         </is>
       </c>
     </row>
